--- a/Sensi_aktuell.xlsx
+++ b/Sensi_aktuell.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannabuck/Desktop/Praktikum/DepressionModel_julia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923C6DF-8005-5C45-89B5-C40929AF7A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16EA00D-5060-CC41-BFEB-260480DA4FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{BF63A015-F8A3-3046-A1DF-889F308E2B8D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="4" xr2:uid="{BF63A015-F8A3-3046-A1DF-889F308E2B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="seed=12" sheetId="1" r:id="rId1"/>
     <sheet name="seed=30" sheetId="2" r:id="rId2"/>
     <sheet name="seed=42" sheetId="3" r:id="rId3"/>
     <sheet name="seed=50" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabelle4" sheetId="5" r:id="rId5"/>
+    <sheet name="seed=74" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Sensibilitätsanalyse_1" localSheetId="0">'seed=12'!$C$2:$AF$27</definedName>
@@ -1449,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A910DC1B-0819-0542-AD60-7BA4D368B52B}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -4260,7 +4260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23430B4-292F-8E43-BFC5-131EA31C8520}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H27"/>
     </sheetView>
   </sheetViews>
